--- a/data/trans_orig/P17A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>147625</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>128185</v>
+        <v>127945</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>170679</v>
+        <v>169555</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2527220728573107</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2194420233826773</v>
+        <v>0.2190316873634222</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2921879054074558</v>
+        <v>0.2902630713489517</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>316</v>
@@ -765,19 +765,19 @@
         <v>327397</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>299385</v>
+        <v>297330</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>359206</v>
+        <v>355652</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3553517604893897</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3249474959734178</v>
+        <v>0.3227172214155068</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3898768202320305</v>
+        <v>0.3860191478693464</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>466</v>
@@ -786,19 +786,19 @@
         <v>475023</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>442561</v>
+        <v>437961</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>511412</v>
+        <v>513862</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3155302592483687</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2939676708024866</v>
+        <v>0.2909121524593105</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3397019150287667</v>
+        <v>0.3413289266198805</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>436516</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>413462</v>
+        <v>414586</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>455956</v>
+        <v>456196</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7472779271426893</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7078120945925442</v>
+        <v>0.7097369286510483</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7805579766173233</v>
+        <v>0.7809683126365778</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>568</v>
@@ -836,19 +836,19 @@
         <v>593936</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>562127</v>
+        <v>565681</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>621948</v>
+        <v>624003</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6446482395106102</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6101231797679697</v>
+        <v>0.6139808521306536</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6750525040265825</v>
+        <v>0.677282778584493</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>992</v>
@@ -857,19 +857,19 @@
         <v>1030451</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>994062</v>
+        <v>991612</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1062913</v>
+        <v>1067513</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6844697407516313</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6602980849712334</v>
+        <v>0.6586710733801195</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7060323291975135</v>
+        <v>0.7090878475406894</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>236750</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>210628</v>
+        <v>207923</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>263496</v>
+        <v>264645</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2199956488345629</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1957221020767292</v>
+        <v>0.1932084449464514</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2448484750071708</v>
+        <v>0.2459162317457797</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>324</v>
@@ -982,19 +982,19 @@
         <v>332908</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>302873</v>
+        <v>303519</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>361288</v>
+        <v>364149</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3150966786712452</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2866685577736977</v>
+        <v>0.2872804908666575</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.341958407421623</v>
+        <v>0.3446663765879212</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>561</v>
@@ -1003,19 +1003,19 @@
         <v>569658</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>528749</v>
+        <v>529285</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>615130</v>
+        <v>614127</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2671084250957079</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2479265747881687</v>
+        <v>0.2481778277377998</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2884301641708968</v>
+        <v>0.2879597161631937</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>839409</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>812663</v>
+        <v>811514</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>865531</v>
+        <v>868236</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7800043511654371</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7551515249928292</v>
+        <v>0.7540837682542203</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8042778979232709</v>
+        <v>0.8067915550535485</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>703</v>
@@ -1053,19 +1053,19 @@
         <v>723618</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>695238</v>
+        <v>692377</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>753653</v>
+        <v>753007</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6849033213287548</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.658041592578377</v>
+        <v>0.6553336234120789</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7133314422263022</v>
+        <v>0.7127195091333425</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1519</v>
@@ -1074,19 +1074,19 @@
         <v>1563026</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1517554</v>
+        <v>1518557</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1603935</v>
+        <v>1603399</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.732891574904292</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7115698358291028</v>
+        <v>0.7120402838368062</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7520734252118313</v>
+        <v>0.7518221722622002</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>186730</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>160947</v>
+        <v>164365</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>213046</v>
+        <v>212293</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1664866544019776</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1434988872725881</v>
+        <v>0.1465462281327769</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1899493544439204</v>
+        <v>0.1892777252420419</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>265</v>
@@ -1199,19 +1199,19 @@
         <v>269284</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>243075</v>
+        <v>240843</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>298275</v>
+        <v>296220</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2709253778572259</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2445570445865297</v>
+        <v>0.2423116328686594</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3000937162091862</v>
+        <v>0.298025914580623</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>451</v>
@@ -1220,19 +1220,19 @@
         <v>456014</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>418588</v>
+        <v>416923</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>497837</v>
+        <v>497291</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2155550169894972</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1978639034975574</v>
+        <v>0.1970770589660534</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2353242868571713</v>
+        <v>0.2350662546254329</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>934864</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>908548</v>
+        <v>909301</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>960647</v>
+        <v>957229</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8335133455980224</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8100506455560795</v>
+        <v>0.8107222747579582</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8565011127274119</v>
+        <v>0.8534537718672232</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>717</v>
@@ -1270,19 +1270,19 @@
         <v>724656</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>695665</v>
+        <v>697720</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>750865</v>
+        <v>753097</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7290746221427741</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6999062837908139</v>
+        <v>0.7019740854193771</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7554429554134704</v>
+        <v>0.7576883671313406</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1634</v>
@@ -1291,19 +1291,19 @@
         <v>1659520</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1617697</v>
+        <v>1618243</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1696946</v>
+        <v>1698611</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7844449830105028</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7646757131428286</v>
+        <v>0.764933745374567</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8021360965024427</v>
+        <v>0.8029229410339466</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>72331</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58220</v>
+        <v>57854</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89161</v>
+        <v>87907</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1620812721278298</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1304609299582439</v>
+        <v>0.1296400898508749</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.199792369718637</v>
+        <v>0.1969829435457572</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>86</v>
@@ -1416,19 +1416,19 @@
         <v>87306</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71398</v>
+        <v>71853</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102084</v>
+        <v>101793</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2559102532771504</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2092827440073995</v>
+        <v>0.210615144976418</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2992273360038769</v>
+        <v>0.2983735110289527</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>157</v>
@@ -1437,19 +1437,19 @@
         <v>159637</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>137196</v>
+        <v>137150</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>183903</v>
+        <v>183655</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2027334896372587</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1742343559020879</v>
+        <v>0.1741758366240615</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2335500506183924</v>
+        <v>0.2332346110269985</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>373935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>357105</v>
+        <v>358359</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>388046</v>
+        <v>388412</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8379187278721701</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8002076302813633</v>
+        <v>0.803017056454243</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8695390700417562</v>
+        <v>0.8703599101491252</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>253</v>
@@ -1487,19 +1487,19 @@
         <v>253852</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>239074</v>
+        <v>239365</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>269760</v>
+        <v>269305</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7440897467228496</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7007726639961231</v>
+        <v>0.7016264889710472</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7907172559926006</v>
+        <v>0.789384855023582</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>617</v>
@@ -1508,19 +1508,19 @@
         <v>627787</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>603521</v>
+        <v>603769</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>650228</v>
+        <v>650274</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7972665103627413</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7664499493816077</v>
+        <v>0.7667653889730015</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8257656440979122</v>
+        <v>0.8258241633759387</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>643437</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>600305</v>
+        <v>594786</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>691438</v>
+        <v>687178</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1993201805667936</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1859590039995373</v>
+        <v>0.1842493178578812</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2141894855318981</v>
+        <v>0.212869805089698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>991</v>
@@ -1633,19 +1633,19 @@
         <v>1016894</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>963528</v>
+        <v>964776</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1076925</v>
+        <v>1071885</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3069446836383228</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2908363744065282</v>
+        <v>0.2912131727162652</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3250646530083093</v>
+        <v>0.3235434480584861</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1635</v>
@@ -1654,19 +1654,19 @@
         <v>1660332</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1588904</v>
+        <v>1594997</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1732089</v>
+        <v>1735410</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2538300329879145</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2429102141108403</v>
+        <v>0.2438417415102264</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2648002206287978</v>
+        <v>0.2653078808576997</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2584723</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2536722</v>
+        <v>2540982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2627855</v>
+        <v>2633374</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8006798194332064</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7858105144681017</v>
+        <v>0.7871301949103018</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8140409960004624</v>
+        <v>0.8157506821421188</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2241</v>
@@ -1704,19 +1704,19 @@
         <v>2296062</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2236031</v>
+        <v>2241071</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2349428</v>
+        <v>2348180</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6930553163616772</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6749353469916908</v>
+        <v>0.6764565519415139</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7091636255934718</v>
+        <v>0.7087868272837348</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4762</v>
@@ -1725,19 +1725,19 @@
         <v>4880784</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4809027</v>
+        <v>4805706</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4952212</v>
+        <v>4946119</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7461699670120855</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7351997793712024</v>
+        <v>0.7346921191423004</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7570897858891598</v>
+        <v>0.7561582584897736</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>267957</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>238342</v>
+        <v>238823</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>299876</v>
+        <v>296052</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2576903030388153</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2292099822700411</v>
+        <v>0.2296725015098489</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2883864295654893</v>
+        <v>0.2847087966984514</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>378</v>
@@ -2090,19 +2090,19 @@
         <v>408906</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>376644</v>
+        <v>377633</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>443077</v>
+        <v>440759</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.366300587462681</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3373996930981575</v>
+        <v>0.3382858550201018</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3969114338577051</v>
+        <v>0.3948344590742943</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>624</v>
@@ -2111,19 +2111,19 @@
         <v>676863</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>633315</v>
+        <v>633386</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>720427</v>
+        <v>721273</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3139214916479294</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2937243739516902</v>
+        <v>0.293757267071686</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3341262793979781</v>
+        <v>0.3345185727483234</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>771883</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>739964</v>
+        <v>743788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>801498</v>
+        <v>801017</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7423096969611847</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7116135704345107</v>
+        <v>0.7152912033015486</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7707900177299589</v>
+        <v>0.770327498490151</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>650</v>
@@ -2161,19 +2161,19 @@
         <v>707407</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>673236</v>
+        <v>675554</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>739669</v>
+        <v>738680</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.633699412537319</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6030885661422948</v>
+        <v>0.6051655409257056</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6626003069018426</v>
+        <v>0.6617141449798983</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1378</v>
@@ -2182,19 +2182,19 @@
         <v>1479290</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1435726</v>
+        <v>1434880</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1522838</v>
+        <v>1522767</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6860785083520706</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.665873720602022</v>
+        <v>0.6654814272516766</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7062756260483098</v>
+        <v>0.7062427329283139</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>215767</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>189864</v>
+        <v>189329</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>243995</v>
+        <v>243530</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2221677137074494</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1954961477194453</v>
+        <v>0.1949450820711804</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2512337199326419</v>
+        <v>0.2507548034691492</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>348</v>
@@ -2307,19 +2307,19 @@
         <v>371782</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>340860</v>
+        <v>341026</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>403227</v>
+        <v>405001</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.340347973651926</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3120408861732301</v>
+        <v>0.3121924124338061</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3691343520900097</v>
+        <v>0.370758120918629</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>547</v>
@@ -2328,19 +2328,19 @@
         <v>587549</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>546658</v>
+        <v>547992</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>629864</v>
+        <v>627189</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2847275471199808</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2649118716724898</v>
+        <v>0.2655582234873197</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3052336025232154</v>
+        <v>0.303937008483505</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>755422</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>727194</v>
+        <v>727659</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>781325</v>
+        <v>781860</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7778322862925505</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.748766280067358</v>
+        <v>0.7492451965308504</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8045038522805547</v>
+        <v>0.8050549179288192</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>670</v>
@@ -2378,19 +2378,19 @@
         <v>720576</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>689131</v>
+        <v>687357</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>751498</v>
+        <v>751332</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.659652026348074</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6308656479099904</v>
+        <v>0.6292418790813712</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.68795911382677</v>
+        <v>0.6878075875661939</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1391</v>
@@ -2399,19 +2399,19 @@
         <v>1475999</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1433684</v>
+        <v>1436359</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1516890</v>
+        <v>1515556</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7152724528800192</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6947663974767846</v>
+        <v>0.696062991516495</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7350881283275105</v>
+        <v>0.7344417765126803</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>190867</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>168740</v>
+        <v>166145</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>218695</v>
+        <v>220875</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2161430412868691</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1910853579067935</v>
+        <v>0.1881467956397594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2476563811758408</v>
+        <v>0.2501247042354822</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>244</v>
@@ -2524,19 +2524,19 @@
         <v>257933</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>230780</v>
+        <v>232766</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>286619</v>
+        <v>289720</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2960844152684092</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2649146114176031</v>
+        <v>0.2671944093174224</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3290133452688043</v>
+        <v>0.3325723772571073</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>424</v>
@@ -2545,19 +2545,19 @@
         <v>448800</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>409932</v>
+        <v>411397</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>485049</v>
+        <v>484191</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2558423265786549</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2336853549495897</v>
+        <v>0.2345203965989612</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2765060227442229</v>
+        <v>0.2760170954472315</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>692192</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>664364</v>
+        <v>662184</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>714319</v>
+        <v>716914</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7838569587131309</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7523436188241592</v>
+        <v>0.7498752957645178</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8089146420932065</v>
+        <v>0.8118532043602409</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>573</v>
@@ -2595,19 +2595,19 @@
         <v>613215</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>584529</v>
+        <v>581428</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>640368</v>
+        <v>638382</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7039155847315908</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.670986654731196</v>
+        <v>0.6674276227428927</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.735085388582397</v>
+        <v>0.7328055906825776</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1221</v>
@@ -2616,19 +2616,19 @@
         <v>1305407</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1269158</v>
+        <v>1270016</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1344275</v>
+        <v>1342810</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7441576734213452</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7234939772557771</v>
+        <v>0.7239829045527685</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7663146450504102</v>
+        <v>0.7654796034010388</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>104527</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>86580</v>
+        <v>86292</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>127349</v>
+        <v>127478</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2081686930556617</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.172427157748013</v>
+        <v>0.1718527383007031</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2536201128331926</v>
+        <v>0.2538772681989521</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>102</v>
@@ -2741,19 +2741,19 @@
         <v>112035</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>94161</v>
+        <v>94012</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>132262</v>
+        <v>132107</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2479583418794704</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2083987317851748</v>
+        <v>0.2080694158366986</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2927234668872167</v>
+        <v>0.2923809618369714</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>193</v>
@@ -2762,19 +2762,19 @@
         <v>216562</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>189864</v>
+        <v>188603</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>246018</v>
+        <v>243671</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2270146263777003</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1990279381524984</v>
+        <v>0.1977062553824722</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2578926406611286</v>
+        <v>0.2554318427564767</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>397599</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>374777</v>
+        <v>374648</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>415546</v>
+        <v>415834</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7918313069443382</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7463798871668075</v>
+        <v>0.7461227318010479</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.827572842251987</v>
+        <v>0.8281472616992969</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>309</v>
@@ -2812,19 +2812,19 @@
         <v>339796</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>319569</v>
+        <v>319724</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>357670</v>
+        <v>357819</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7520416581205296</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7072765331127833</v>
+        <v>0.7076190381630286</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7916012682148252</v>
+        <v>0.7919305841633016</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>678</v>
@@ -2833,19 +2833,19 @@
         <v>737395</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>707939</v>
+        <v>710286</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>764093</v>
+        <v>765354</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7729853736222998</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7421073593388716</v>
+        <v>0.7445681572435232</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8009720618475016</v>
+        <v>0.8022937446175277</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>779118</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>723634</v>
+        <v>733141</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>832842</v>
+        <v>828106</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.22940765987691</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2130708618244274</v>
+        <v>0.2158701206162315</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2452266317755522</v>
+        <v>0.2438320159480543</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1072</v>
@@ -2958,19 +2958,19 @@
         <v>1150657</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1089433</v>
+        <v>1098106</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1206774</v>
+        <v>1212384</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3258127282368972</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3084770063704921</v>
+        <v>0.310932833865136</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3417026603827503</v>
+        <v>0.3432910264197065</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1788</v>
@@ -2979,19 +2979,19 @@
         <v>1929774</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1859078</v>
+        <v>1848898</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2006630</v>
+        <v>2004401</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2785525287714325</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2683478785381648</v>
+        <v>0.266878505803354</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2896462598586557</v>
+        <v>0.2893244980923675</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2617096</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2563372</v>
+        <v>2568108</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2672580</v>
+        <v>2663073</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.77059234012309</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.754773368224448</v>
+        <v>0.7561679840519457</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7869291381755728</v>
+        <v>0.7841298793837685</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2202</v>
@@ -3029,19 +3029,19 @@
         <v>2380993</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2324876</v>
+        <v>2319266</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2442217</v>
+        <v>2433544</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6741872717631029</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6582973396172498</v>
+        <v>0.6567089735802939</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.691522993629508</v>
+        <v>0.689067166134864</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4668</v>
@@ -3050,19 +3050,19 @@
         <v>4998091</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4921235</v>
+        <v>4923464</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5068787</v>
+        <v>5078967</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7214474712285674</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7103537401413443</v>
+        <v>0.7106755019076325</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7316521214618351</v>
+        <v>0.7331214941966459</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>277302</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>251333</v>
+        <v>248341</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>309363</v>
+        <v>308034</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2458356477433696</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2228137577399584</v>
+        <v>0.2201612889880143</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2742586728980838</v>
+        <v>0.2730804235523403</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>400</v>
@@ -3415,19 +3415,19 @@
         <v>434114</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>398892</v>
+        <v>402330</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>470076</v>
+        <v>469964</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3446549818497407</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3166916741147907</v>
+        <v>0.3194206613984982</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3732064663459868</v>
+        <v>0.373117304605747</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>656</v>
@@ -3436,19 +3436,19 @@
         <v>711416</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>660851</v>
+        <v>665856</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>756189</v>
+        <v>759920</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2979679756474681</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2767894035970828</v>
+        <v>0.2788859119153166</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.316720586809584</v>
+        <v>0.3182834188790301</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>850695</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>818634</v>
+        <v>819963</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>876664</v>
+        <v>879656</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7541643522566304</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7257413271019162</v>
+        <v>0.7269195764476597</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7771862422600416</v>
+        <v>0.7798387110119857</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>788</v>
@@ -3486,19 +3486,19 @@
         <v>825447</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>789485</v>
+        <v>789597</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>860669</v>
+        <v>857231</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6553450181502593</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.626793533654013</v>
+        <v>0.6268826953942528</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6833083258852092</v>
+        <v>0.6805793386015017</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1598</v>
@@ -3507,19 +3507,19 @@
         <v>1676142</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1631369</v>
+        <v>1627638</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1726707</v>
+        <v>1721702</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.702032024352532</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6832794131904165</v>
+        <v>0.6817165811209699</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7232105964029175</v>
+        <v>0.7211140880846834</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>222983</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>201519</v>
+        <v>198679</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>252364</v>
+        <v>253871</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2453525686690076</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2217362415327682</v>
+        <v>0.2186111460665976</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2776816183941275</v>
+        <v>0.2793397076546296</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>310</v>
@@ -3632,19 +3632,19 @@
         <v>335049</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>305302</v>
+        <v>306612</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>364468</v>
+        <v>368180</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3328932456081893</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3033380483147416</v>
+        <v>0.304639417328173</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3621229992815461</v>
+        <v>0.3658111932118105</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>527</v>
@@ -3653,19 +3653,19 @@
         <v>558031</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>517705</v>
+        <v>519617</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>602527</v>
+        <v>599368</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2913545136991099</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.270299466836414</v>
+        <v>0.2712977692771786</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3145862548530603</v>
+        <v>0.3129368188559556</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>685842</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>656461</v>
+        <v>654954</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>707306</v>
+        <v>710146</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7546474313309923</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7223183816058724</v>
+        <v>0.72066029234537</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7782637584672317</v>
+        <v>0.7813888539334023</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>641</v>
@@ -3703,19 +3703,19 @@
         <v>671426</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>642007</v>
+        <v>638295</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>701173</v>
+        <v>699863</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6671067543918107</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6378770007184538</v>
+        <v>0.6341888067881893</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6966619516852582</v>
+        <v>0.6953605826718269</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1305</v>
@@ -3724,19 +3724,19 @@
         <v>1357269</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1312773</v>
+        <v>1315932</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1397595</v>
+        <v>1395683</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7086454863008902</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6854137451469398</v>
+        <v>0.6870631811440447</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.729700533163586</v>
+        <v>0.7287022307228215</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>222491</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>199068</v>
+        <v>198073</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>250003</v>
+        <v>249322</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2700921832236935</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2416577069772236</v>
+        <v>0.240450283422251</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3034909546251607</v>
+        <v>0.3026635639100155</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>239</v>
@@ -3849,19 +3849,19 @@
         <v>255704</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>228382</v>
+        <v>231382</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>282838</v>
+        <v>282912</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3316264573686667</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2961925970892586</v>
+        <v>0.3000832974214708</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3668178798852641</v>
+        <v>0.3669134565361111</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>457</v>
@@ -3870,19 +3870,19 @@
         <v>478194</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>440276</v>
+        <v>441592</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>514011</v>
+        <v>517408</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2998426234102479</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2760668863971276</v>
+        <v>0.2768916814366412</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3223007865095961</v>
+        <v>0.3244307418887759</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>601268</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>573756</v>
+        <v>574437</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>624691</v>
+        <v>625686</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7299078167763065</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6965090453748393</v>
+        <v>0.6973364360899841</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7583422930227763</v>
+        <v>0.7595497165777489</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>489</v>
@@ -3920,19 +3920,19 @@
         <v>515355</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>488221</v>
+        <v>488147</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>542677</v>
+        <v>539677</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6683735426313332</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6331821201147358</v>
+        <v>0.6330865434638894</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7038074029107414</v>
+        <v>0.6999167025785292</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1058</v>
@@ -3941,19 +3941,19 @@
         <v>1116624</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1080807</v>
+        <v>1077410</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1154542</v>
+        <v>1153226</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7001573765897521</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6776992134904039</v>
+        <v>0.6755692581112241</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7239331136028724</v>
+        <v>0.7231083185633588</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>122104</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>102482</v>
+        <v>101397</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>141689</v>
+        <v>141122</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.240977902460334</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2022527043353434</v>
+        <v>0.2001122728616798</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.279630427905696</v>
+        <v>0.2785107615819306</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -4066,19 +4066,19 @@
         <v>133610</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>113735</v>
+        <v>114368</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>154932</v>
+        <v>156309</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2728408866695237</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2322546945184248</v>
+        <v>0.2335471126720524</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3163830685217776</v>
+        <v>0.3191954652529857</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>237</v>
@@ -4087,19 +4087,19 @@
         <v>255713</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>227937</v>
+        <v>226690</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>283708</v>
+        <v>287078</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2566375266933107</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2287610913559516</v>
+        <v>0.2275093386079147</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2847339420456331</v>
+        <v>0.2881159798420174</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>384597</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>365012</v>
+        <v>365579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>404219</v>
+        <v>405304</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.759022097539666</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.720369572094304</v>
+        <v>0.7214892384180696</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7977472956646565</v>
+        <v>0.7998877271383203</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>332</v>
@@ -4137,19 +4137,19 @@
         <v>356088</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>334766</v>
+        <v>333389</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>375963</v>
+        <v>375330</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7271591133304763</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6836169314782226</v>
+        <v>0.6808045347470143</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7677453054815752</v>
+        <v>0.7664528873279476</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>689</v>
@@ -4158,19 +4158,19 @@
         <v>740685</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>712690</v>
+        <v>709320</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>768461</v>
+        <v>769708</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7433624733066894</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7152660579543669</v>
+        <v>0.7118840201579826</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7712389086440483</v>
+        <v>0.7724906613920853</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>844879</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>794411</v>
+        <v>796322</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>894843</v>
+        <v>896907</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2509083114004339</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2359205427795844</v>
+        <v>0.2364880791640448</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2657462395823892</v>
+        <v>0.2663592895097306</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1072</v>
@@ -4283,19 +4283,19 @@
         <v>1158476</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1105656</v>
+        <v>1100920</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1222664</v>
+        <v>1214559</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3284785713482377</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3135019293158438</v>
+        <v>0.3121590709404381</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3466787972157861</v>
+        <v>0.3443807244716074</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1877</v>
@@ -4304,19 +4304,19 @@
         <v>2003355</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1927824</v>
+        <v>1924901</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2080333</v>
+        <v>2079026</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2905908236193249</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2796348393743585</v>
+        <v>0.2792109767406108</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3017566146482962</v>
+        <v>0.3015670951772457</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2522403</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2472439</v>
+        <v>2470375</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2572871</v>
+        <v>2570960</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7490916885995661</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7342537604176108</v>
+        <v>0.7336407104902695</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7640794572204158</v>
+        <v>0.7635119208359553</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2250</v>
@@ -4354,19 +4354,19 @@
         <v>2368316</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2304128</v>
+        <v>2312233</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2421136</v>
+        <v>2425872</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6715214286517623</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6533212027842142</v>
+        <v>0.6556192755283925</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6864980706841564</v>
+        <v>0.687840929059562</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4650</v>
@@ -4375,19 +4375,19 @@
         <v>4890720</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4813742</v>
+        <v>4815049</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4966251</v>
+        <v>4969174</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7094091763806751</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6982433853517038</v>
+        <v>0.6984329048227543</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7203651606256415</v>
+        <v>0.7207890232593892</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>113302</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>93850</v>
+        <v>92854</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>134547</v>
+        <v>134951</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2275907808806113</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1885168349759181</v>
+        <v>0.1865164844179678</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2702655791582422</v>
+        <v>0.2710754271954524</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>278</v>
@@ -4740,19 +4740,19 @@
         <v>193169</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>171701</v>
+        <v>175221</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>214000</v>
+        <v>214762</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3106208039596125</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2760993094129959</v>
+        <v>0.2817591083308146</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3441167390740117</v>
+        <v>0.3453420111848756</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>392</v>
@@ -4761,19 +4761,19 @@
         <v>306472</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>279515</v>
+        <v>279461</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>337543</v>
+        <v>335050</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2737050192514434</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2496306018565067</v>
+        <v>0.2495821080318509</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3014541347114285</v>
+        <v>0.2992279573497662</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>384532</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>363287</v>
+        <v>362883</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>403984</v>
+        <v>404980</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7724092191193886</v>
+        <v>0.7724092191193888</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7297344208417577</v>
+        <v>0.7289245728045477</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8114831650240817</v>
+        <v>0.813483515582032</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>581</v>
@@ -4811,19 +4811,19 @@
         <v>428712</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>407881</v>
+        <v>407119</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>450180</v>
+        <v>446660</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6893791960403874</v>
+        <v>0.6893791960403873</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6558832609259883</v>
+        <v>0.6546579888151244</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.723900690587004</v>
+        <v>0.7182408916691855</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>921</v>
@@ -4832,19 +4832,19 @@
         <v>813243</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>782172</v>
+        <v>784665</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>840200</v>
+        <v>840254</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7262949807485568</v>
+        <v>0.7262949807485567</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6985458652885715</v>
+        <v>0.7007720426502337</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7503693981434931</v>
+        <v>0.750417891968149</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>175675</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>152031</v>
+        <v>150910</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>202238</v>
+        <v>202824</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1830956343859987</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1584528921611133</v>
+        <v>0.157284812954616</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2107809083028679</v>
+        <v>0.2113921013406703</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>431</v>
@@ -4957,19 +4957,19 @@
         <v>283783</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>260238</v>
+        <v>260455</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>307497</v>
+        <v>309857</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2544165430241414</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.233307676009746</v>
+        <v>0.2335029220949251</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2756765197294382</v>
+        <v>0.2777922007064113</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>622</v>
@@ -4978,19 +4978,19 @@
         <v>459458</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>424103</v>
+        <v>425891</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>495622</v>
+        <v>492800</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2214364909342809</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2043973992747668</v>
+        <v>0.2052588561083186</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2388661598541293</v>
+        <v>0.2375060484739727</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>783794</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>757231</v>
+        <v>756645</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>807438</v>
+        <v>808559</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8169043656140014</v>
+        <v>0.8169043656140013</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.789219091697132</v>
+        <v>0.7886078986593297</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8415471078388859</v>
+        <v>0.8427151870453841</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1175</v>
@@ -5028,19 +5028,19 @@
         <v>831644</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>807930</v>
+        <v>805570</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>855189</v>
+        <v>854972</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7455834569758587</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7243234802705618</v>
+        <v>0.7222077992935887</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7666923239902542</v>
+        <v>0.7664970779050746</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1893</v>
@@ -5049,19 +5049,19 @@
         <v>1615438</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1579274</v>
+        <v>1582096</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1650793</v>
+        <v>1649005</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7785635090657189</v>
+        <v>0.778563509065719</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7611338401458708</v>
+        <v>0.7624939515260273</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7956026007252334</v>
+        <v>0.7947411438916815</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>194387</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169962</v>
+        <v>170674</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>220398</v>
+        <v>223339</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1857536886295384</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1624130063423189</v>
+        <v>0.1630933397514601</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2106091324579513</v>
+        <v>0.213419293098556</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>344</v>
@@ -5174,19 +5174,19 @@
         <v>236390</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>212185</v>
+        <v>211817</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>260447</v>
+        <v>258815</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2258524936563219</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2027261272902506</v>
+        <v>0.2023753734928463</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2488368509347949</v>
+        <v>0.2472776439570211</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>552</v>
@@ -5195,19 +5195,19 @@
         <v>430777</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>398349</v>
+        <v>397164</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>467077</v>
+        <v>467014</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2058047799020798</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1903120864160202</v>
+        <v>0.189745943193322</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2231471929728812</v>
+        <v>0.2231169463377063</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>852092</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>826081</v>
+        <v>823140</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>876517</v>
+        <v>875805</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8142463113704616</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7893908675420487</v>
+        <v>0.7865807069014437</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.837586993657681</v>
+        <v>0.8369066602485397</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1170</v>
@@ -5245,19 +5245,19 @@
         <v>810266</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>786209</v>
+        <v>787841</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>834471</v>
+        <v>834839</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7741475063436781</v>
+        <v>0.774147506343678</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7511631490652051</v>
+        <v>0.752722356042979</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7972738727097493</v>
+        <v>0.797624626507154</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1991</v>
@@ -5266,19 +5266,19 @@
         <v>1662358</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1626058</v>
+        <v>1626121</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1694786</v>
+        <v>1695971</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7941952200979202</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7768528070271192</v>
+        <v>0.7768830536622936</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8096879135839797</v>
+        <v>0.8102540568066781</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>193830</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>165057</v>
+        <v>167403</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>223117</v>
+        <v>223641</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1986109197295544</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1691280636966682</v>
+        <v>0.1715314633498521</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2286196495979783</v>
+        <v>0.2291566207667682</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>288</v>
@@ -5391,19 +5391,19 @@
         <v>206947</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>185553</v>
+        <v>184155</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>231416</v>
+        <v>230029</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2278664918737492</v>
+        <v>0.2278664918737491</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.204309194902463</v>
+        <v>0.2027707267202681</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2548091363044362</v>
+        <v>0.253281247035322</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>477</v>
@@ -5412,19 +5412,19 @@
         <v>400777</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>364534</v>
+        <v>365629</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>434248</v>
+        <v>438746</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2127128390842344</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1934764892356834</v>
+        <v>0.1940579796292067</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2304774679733722</v>
+        <v>0.2328644808675905</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>782099</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>752812</v>
+        <v>752288</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>810872</v>
+        <v>808526</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8013890802704456</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7713803504020217</v>
+        <v>0.7708433792332319</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8308719363033318</v>
+        <v>0.8284685366501479</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1032</v>
@@ -5462,19 +5462,19 @@
         <v>701248</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>676779</v>
+        <v>678166</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>722642</v>
+        <v>724040</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7721335081262509</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7451908636955636</v>
+        <v>0.7467187529646779</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7956908050975369</v>
+        <v>0.7972292732797319</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1790</v>
@@ -5483,19 +5483,19 @@
         <v>1483347</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1449876</v>
+        <v>1445378</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1519590</v>
+        <v>1518495</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7872871609157657</v>
+        <v>0.7872871609157656</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.769522532026628</v>
+        <v>0.7671355191324094</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8065235107643167</v>
+        <v>0.8059420203707932</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>677194</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>631162</v>
+        <v>632239</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>724670</v>
+        <v>728888</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1946122816151506</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.18138342936211</v>
+        <v>0.1816930307366918</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2082557031884526</v>
+        <v>0.2094678969770642</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1341</v>
@@ -5608,19 +5608,19 @@
         <v>920289</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>873095</v>
+        <v>874609</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>966420</v>
+        <v>967114</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.249255065978461</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2364728809176684</v>
+        <v>0.2368828914554618</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2617491784066003</v>
+        <v>0.2619372717393333</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2043</v>
@@ -5629,19 +5629,19 @@
         <v>1597484</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1526187</v>
+        <v>1531429</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1659005</v>
+        <v>1664708</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2227429996289649</v>
+        <v>0.2227429996289648</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2128018504647405</v>
+        <v>0.2135327845313796</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.231321087347138</v>
+        <v>0.2321163757350562</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2802517</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2755041</v>
+        <v>2750823</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2848549</v>
+        <v>2847472</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8053877183848493</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7917442968115475</v>
+        <v>0.7905321030229355</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8186165706378901</v>
+        <v>0.8183069692633081</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3958</v>
@@ -5679,19 +5679,19 @@
         <v>2771870</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2725739</v>
+        <v>2725045</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2819064</v>
+        <v>2817550</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.750744934021539</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7382508215933997</v>
+        <v>0.7380627282606667</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7635271190823316</v>
+        <v>0.7631171085445382</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6595</v>
@@ -5700,19 +5700,19 @@
         <v>5574385</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5512864</v>
+        <v>5507161</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5645682</v>
+        <v>5640440</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7772570003710352</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.768678912652862</v>
+        <v>0.7678836242649438</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7871981495352596</v>
+        <v>0.7864672154686204</v>
       </c>
     </row>
     <row r="18">
